--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1894</v>
+        <v>1864</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
@@ -556,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1253</v>
+        <v>843</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -73,7 +73,7 @@
     <t>3085860300715023017</t>
   </si>
   <si>
-    <t>495992988</t>
+    <t>0495992988</t>
   </si>
   <si>
     <t>ฎศ-475 กรุงเทพมหานคร</t>
@@ -85,7 +85,7 @@
     <t>3085860300587680019</t>
   </si>
   <si>
-    <t>524607788</t>
+    <t>0524607788</t>
   </si>
   <si>
     <t>ฎศ-745 กรุงเทพมหานคร</t>
@@ -97,7 +97,7 @@
     <t>3085860600567200013</t>
   </si>
   <si>
-    <t>579855409</t>
+    <t>0579855409</t>
   </si>
   <si>
     <t>2กฬ-7898 กรุงเทพมหานคร</t>
@@ -109,7 +109,7 @@
     <t>3085860600858752011</t>
   </si>
   <si>
-    <t>742564626</t>
+    <t>0742564626</t>
   </si>
   <si>
     <t>7กล-3404 กรุงเทพมหานคร</t>
@@ -121,7 +121,7 @@
     <t>3085860601025139017</t>
   </si>
   <si>
-    <t>744547410</t>
+    <t>0744547410</t>
   </si>
   <si>
     <t>8กว-118 กรุงเทพมหานคร</t>
@@ -133,7 +133,7 @@
     <t>3085860601025138019</t>
   </si>
   <si>
-    <t>744751490</t>
+    <t>0744751490</t>
   </si>
   <si>
     <t>7กษ-4315 กรุงเทพมหานคร</t>
@@ -372,13 +372,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>2701</v>
+        <v>3061</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,13 +395,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1920</v>
+        <v>2230</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -441,13 +441,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1864</v>
+        <v>2864</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -464,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>628</v>
+        <v>3208</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -487,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1771</v>
+        <v>2271</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -556,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>843</v>
+        <v>1983</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>2200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:7">

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -372,13 +372,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>3061</v>
+        <v>2401</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,13 +395,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2230</v>
+        <v>1125</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -464,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>3208</v>
+        <v>2173</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1983</v>
+        <v>1728</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -223,7 +223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <bgColor rgb="FFF9F908"/>
+        <fgColor rgb="FFF9F908"/>
       </patternFill>
     </fill>
   </fills>
@@ -372,13 +372,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>2401</v>
+        <v>1731</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1125</v>
+        <v>1055</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
@@ -441,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>2864</v>
+        <v>2814</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
@@ -464,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>2173</v>
+        <v>1318</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -556,13 +556,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1728</v>
+        <v>1438</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -627,6 +627,7 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A21:F21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.4" right="0.6" top="0.6" bottom="0.4" header="0.1" footer="0.1"/>
+  <pageSetup scale="85" orientation="landscape"/>
 </worksheet>
 </file>
--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -372,13 +372,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1731</v>
+        <v>1601</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1438</v>
+        <v>1283</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -372,13 +372,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>1601</v>
+        <v>886</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1055</v>
+        <v>935</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
@@ -424,7 +424,7 @@
         <v>28</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -464,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>1318</v>
+        <v>733</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1283</v>
+        <v>1213</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -372,13 +372,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>886</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,13 +395,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>935</v>
+        <v>1695</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -441,13 +441,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>2814</v>
+        <v>1809</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2271</v>
+        <v>1781</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>40</v>
@@ -556,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1213</v>
+        <v>1283</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>
@@ -579,13 +579,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>0</v>
+        <v>2340</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:7">

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>ข้อมูลผู้ใช้</t>
   </si>
@@ -136,9 +136,6 @@
     <t>0744751490</t>
   </si>
   <si>
-    <t>7กษ-4315 กรุงเทพมหานคร</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -184,7 +181,7 @@
     <t>3145305420</t>
   </si>
   <si>
-    <t>ฎผ-9388 กรุงเทพมหานคร</t>
+    <t>6กย-2779 กรุงเทพมหานคร</t>
   </si>
   <si>
     <t>11</t>
@@ -372,13 +369,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>6</v>
+        <v>461</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,13 +392,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1695</v>
+        <v>1590</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -441,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1809</v>
+        <v>1539</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
@@ -464,13 +461,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>693</v>
+        <v>498</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -487,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1781</v>
+        <v>1861</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
@@ -498,13 +495,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -513,7 +510,7 @@
         <v>185</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
@@ -521,13 +518,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
@@ -536,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -544,59 +541,59 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>1283</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G18" s="1" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>2340</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="G19" s="1" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>3</v>
@@ -605,7 +602,7 @@
         <v>685</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ข้อมูลผู้ใช้</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>0744751490</t>
+  </si>
+  <si>
+    <t>7กษ-4315 กรุงเทพมหานคร</t>
   </si>
   <si>
     <t>7</t>
@@ -369,7 +372,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>461</v>
+        <v>566</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -392,13 +395,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1590</v>
+        <v>2020</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -438,13 +441,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>1539</v>
+        <v>869</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -461,13 +464,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>498</v>
+        <v>2793</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -484,24 +487,24 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>1861</v>
+        <v>881</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
@@ -510,7 +513,7 @@
         <v>185</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
@@ -518,13 +521,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
@@ -533,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -541,45 +544,45 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>1228</v>
+        <v>138</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>870</v>
+        <v>700</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>1000</v>
@@ -587,13 +590,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>3</v>
@@ -602,7 +605,7 @@
         <v>685</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>0</v>

--- a/report_easypass.xlsx
+++ b/report_easypass.xlsx
@@ -136,7 +136,7 @@
     <t>0744751490</t>
   </si>
   <si>
-    <t>7กษ-4315 กรุงเทพมหานคร</t>
+    <t>6กย-2779 กรุงเทพมหานคร</t>
   </si>
   <si>
     <t>7</t>
@@ -184,7 +184,7 @@
     <t>3145305420</t>
   </si>
   <si>
-    <t>6กย-2779 กรุงเทพมหานคร</t>
+    <t>ฎผ-9388 กรุงเทพมหานคร</t>
   </si>
   <si>
     <t>11</t>
@@ -257,6 +257,9 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
   <cellXfs count="7">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164"/>
@@ -266,6 +269,9 @@
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="2"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
@@ -372,13 +378,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>566</v>
+        <v>1466</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -395,13 +401,13 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>2020</v>
+        <v>1275</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -441,13 +447,13 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>869</v>
+        <v>2159</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -464,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>2793</v>
+        <v>4683</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -487,13 +493,13 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>881</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -556,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>138</v>
+        <v>2363</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -579,13 +585,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>700</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
